--- a/ISRaD_data_files/Dutta_2006.xlsx
+++ b/ISRaD_data_files/Dutta_2006.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/f003833/Documents/GitHub/ISRaD/ISRaD_data_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E613CEBA-94FE-2A4B-A43B-3F518382E00D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B753D228-6B78-1C4B-AC7E-13A10F2BE5DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1800" yWindow="760" windowWidth="25360" windowHeight="15820" tabRatio="645" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1678" uniqueCount="929">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1678" uniqueCount="930">
   <si>
     <t>curator_name</t>
   </si>
@@ -3860,6 +3860,9 @@
   </si>
   <si>
     <t>DOC, supsample thawed in DI water (10:1); centrifuged, filtered and acidified w/ nitric acid to pH 7</t>
+  </si>
+  <si>
+    <t>extracted</t>
   </si>
 </sst>
 </file>
@@ -17852,7 +17855,7 @@
   <dimension ref="A1:BW1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -19201,7 +19204,7 @@
         <v>920</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>214</v>
+        <v>929</v>
       </c>
       <c r="I10" s="8" t="s">
         <v>914</v>
@@ -19295,7 +19298,7 @@
         <v>920</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>214</v>
+        <v>929</v>
       </c>
       <c r="I11" s="8" t="s">
         <v>914</v>
@@ -19397,7 +19400,7 @@
         <v>920</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>214</v>
+        <v>929</v>
       </c>
       <c r="I12" s="8" t="s">
         <v>914</v>
@@ -19491,7 +19494,7 @@
         <v>920</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>214</v>
+        <v>929</v>
       </c>
       <c r="I13" s="8" t="s">
         <v>914</v>
@@ -19593,7 +19596,7 @@
         <v>920</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>214</v>
+        <v>929</v>
       </c>
       <c r="I14" s="8" t="s">
         <v>914</v>
@@ -19695,7 +19698,7 @@
         <v>920</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>214</v>
+        <v>929</v>
       </c>
       <c r="I15" s="8" t="s">
         <v>914</v>
